--- a/xml/Enemies.xlsx
+++ b/xml/Enemies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Bulleter</t>
+  </si>
+  <si>
+    <t>Engineer</t>
   </si>
 </sst>
 </file>
@@ -126,8 +129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G6" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A2:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G7" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A2:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Enemies/Enemy/Name" xmlDataType="string"/>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,64 +497,64 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>6.15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>4500</v>
+        <v>700</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -559,7 +562,30 @@
       <c r="E6">
         <v>15</v>
       </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
       <c r="G6">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>4500</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
